--- a/medicine/Psychotrope/The_J.M._Smucker_Company/The_J.M._Smucker_Company.xlsx
+++ b/medicine/Psychotrope/The_J.M._Smucker_Company/The_J.M._Smucker_Company.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The J.M. Smucker Company est une entreprise agroalimentaire américaine. Elle possède notamment la marque de café Folgers et la marque de beurre de cacahuètes Jif.
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En novembre 2015, J.M. Smucker vend ses activités de lait concentré américaine et mexicaine (mais non celles canadiennes) au fonds d'investissement Kelso &amp; Co, pour un montant inconnu. J.M. Smucker avait acquis ces activités en 2007 pour 250 millions de dollars[1].
-En mai 2017, J.M. Smucker annonce l'acquisition de la marque d'huile de cuisson Wesson à Conagra Brands pour 285 millions de dollars[2].
-En mars 2018, J.M. Smucker annonce l'acquisition d'Ainsworth Pet Nutrition, spécialisée dans la nourriture pour animaux de compagnie, pour 1,9 milliard de dollars[3].
-En octobre 2020, J.M. Smucker annonce la vente de la marque Crisco à B&amp;G Foods pour 550 millions de dollars[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2015, J.M. Smucker vend ses activités de lait concentré américaine et mexicaine (mais non celles canadiennes) au fonds d'investissement Kelso &amp; Co, pour un montant inconnu. J.M. Smucker avait acquis ces activités en 2007 pour 250 millions de dollars.
+En mai 2017, J.M. Smucker annonce l'acquisition de la marque d'huile de cuisson Wesson à Conagra Brands pour 285 millions de dollars.
+En mars 2018, J.M. Smucker annonce l'acquisition d'Ainsworth Pet Nutrition, spécialisée dans la nourriture pour animaux de compagnie, pour 1,9 milliard de dollars.
+En octobre 2020, J.M. Smucker annonce la vente de la marque Crisco à B&amp;G Foods pour 550 millions de dollars.
 </t>
         </is>
       </c>
